--- a/TEMOA_Europe_Results/3_Results_ct+_nuc+/_5_Final_consumption.xlsx
+++ b/TEMOA_Europe_Results/3_Results_ct+_nuc+/_5_Final_consumption.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="148">
   <si>
     <t>tech</t>
   </si>
@@ -89,9 +89,6 @@
     <t>ELC_FT_SOL_CSP</t>
   </si>
   <si>
-    <t>ELC_FT_WAV</t>
-  </si>
-  <si>
     <t>ELC_FT_TDL</t>
   </si>
   <si>
@@ -233,7 +230,7 @@
     <t>TRA_FT_AMM_ELCSYS_CU</t>
   </si>
   <si>
-    <t>TRA_FT_AMM_ELCSYS_DT</t>
+    <t>TRA_FT_MTH</t>
   </si>
   <si>
     <t>HH2_DEL_TRA_LH2_C_1_NEW</t>
@@ -242,9 +239,6 @@
     <t>HH2_DEL_TRA_LH2_C_2_NEW</t>
   </si>
   <si>
-    <t>HH2_DEL_TRA_GH2_C_2_NEW</t>
-  </si>
-  <si>
     <t>HH2_DEL_TRA_GH2_C_4_NEW</t>
   </si>
   <si>
@@ -257,7 +251,7 @@
     <t>TRA_FT_AMM_INT_ELCSYS_CU</t>
   </si>
   <si>
-    <t>TRA_FT_AMM_INT_ELCSYS_DT</t>
+    <t>TRA_FT_MTH_INT</t>
   </si>
   <si>
     <t>HH2_DEL_TRA_LH2_INT_C_1_NEW</t>
@@ -314,6 +308,9 @@
     <t>IND_FT_HET</t>
   </si>
   <si>
+    <t>HH2_DEL_IND_C_1_NEW</t>
+  </si>
+  <si>
     <t>HH2_WE_DEL_IND_C_1_NEW</t>
   </si>
   <si>
@@ -350,112 +347,115 @@
     <t>PRI_OIL_LPG</t>
   </si>
   <si>
+    <t>PRI_GAS_COG</t>
+  </si>
+  <si>
+    <t>PRI_GAS_OXY</t>
+  </si>
+  <si>
+    <t>PRI_COA_BCO</t>
+  </si>
+  <si>
+    <t>PRI_COA_HCO</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_MUN</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_WOD</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_SLU</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_CRP_STC</t>
+  </si>
+  <si>
+    <t>RNW_POT_HYD</t>
+  </si>
+  <si>
+    <t>RNW_POT_GEO</t>
+  </si>
+  <si>
+    <t>RNW_POT_SOL_PV</t>
+  </si>
+  <si>
+    <t>RNW_POT_SOL_TH</t>
+  </si>
+  <si>
+    <t>RNW_POT_SOL_CSP</t>
+  </si>
+  <si>
+    <t>RNW_POT_TDL</t>
+  </si>
+  <si>
+    <t>RNW_POT_WIN_ON</t>
+  </si>
+  <si>
+    <t>RNW_POT_WIN_OFF</t>
+  </si>
+  <si>
+    <t>PRI_OIL_DST_kt</t>
+  </si>
+  <si>
+    <t>PRI_OIL_GSL_kt</t>
+  </si>
+  <si>
+    <t>PRI_OIL_KER</t>
+  </si>
+  <si>
+    <t>PRI_COA_OVC</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_LIQ</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>RNW_BIO_ETH</t>
+  </si>
+  <si>
+    <t>RNW_BIO_ETBE</t>
+  </si>
+  <si>
+    <t>SYN_DST_kt</t>
+  </si>
+  <si>
+    <t>RNW_BIO_EMHV</t>
+  </si>
+  <si>
+    <t>PRI_OIL_KER_kt</t>
+  </si>
+  <si>
+    <t>HH2_WE_CU</t>
+  </si>
+  <si>
+    <t>SYN_MTH</t>
+  </si>
+  <si>
+    <t>HH2_CU</t>
+  </si>
+  <si>
+    <t>HH2_CT</t>
+  </si>
+  <si>
     <t>PRI_GAS_BFG</t>
   </si>
   <si>
-    <t>PRI_GAS_COG</t>
-  </si>
-  <si>
-    <t>PRI_GAS_OXY</t>
-  </si>
-  <si>
-    <t>PRI_COA_BCO</t>
-  </si>
-  <si>
-    <t>PRI_COA_HCO</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_MUN</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_WOD</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_SLU</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_CRP_STC</t>
-  </si>
-  <si>
-    <t>RNW_POT_HYD</t>
-  </si>
-  <si>
-    <t>RNW_POT_GEO</t>
-  </si>
-  <si>
-    <t>RNW_POT_SOL_PV</t>
-  </si>
-  <si>
-    <t>RNW_POT_SOL_TH</t>
-  </si>
-  <si>
-    <t>RNW_POT_SOL_CSP</t>
-  </si>
-  <si>
-    <t>RNW_POT_WAV</t>
-  </si>
-  <si>
-    <t>RNW_POT_TDL</t>
-  </si>
-  <si>
-    <t>RNW_POT_WIN_ON</t>
-  </si>
-  <si>
-    <t>RNW_POT_WIN_OFF</t>
-  </si>
-  <si>
-    <t>PRI_OIL_DST_kt</t>
-  </si>
-  <si>
-    <t>PRI_OIL_GSL_kt</t>
-  </si>
-  <si>
-    <t>PRI_OIL_KER</t>
-  </si>
-  <si>
-    <t>PRI_COA_OVC</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_LIQ</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>RNW_BIO_ETH</t>
-  </si>
-  <si>
-    <t>RNW_BIO_ETBE</t>
-  </si>
-  <si>
-    <t>RNW_BIO_EMHV</t>
-  </si>
-  <si>
-    <t>PRI_OIL_KER_kt</t>
-  </si>
-  <si>
-    <t>HH2_WE_CU</t>
+    <t>PRI_OIL_GSL</t>
+  </si>
+  <si>
+    <t>PRI_GAS_ETH</t>
+  </si>
+  <si>
+    <t>PRI_OIL_NAP</t>
+  </si>
+  <si>
+    <t>RNW_BIO_NAP</t>
   </si>
   <si>
     <t>HH2_WE_DT</t>
-  </si>
-  <si>
-    <t>HH2_CU</t>
-  </si>
-  <si>
-    <t>HH2_CT</t>
-  </si>
-  <si>
-    <t>PRI_OIL_GSL</t>
-  </si>
-  <si>
-    <t>PRI_GAS_ETH</t>
-  </si>
-  <si>
-    <t>PRI_OIL_NAP</t>
-  </si>
-  <si>
-    <t>RNW_BIO_NAP</t>
   </si>
   <si>
     <t>output_comm</t>
@@ -816,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,34 +865,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>219.0857283229944</v>
+        <v>220.1636727898046</v>
       </c>
       <c r="E2">
-        <v>219.0857283229944</v>
+        <v>220.1636727898047</v>
       </c>
       <c r="F2">
-        <v>219.0857283229944</v>
+        <v>220.1636727898046</v>
       </c>
       <c r="G2">
-        <v>172.6184172607306</v>
+        <v>173.157579432238</v>
       </c>
       <c r="H2">
-        <v>154.2201699676706</v>
+        <v>152.2067473049005</v>
       </c>
       <c r="I2">
-        <v>136.1821827208804</v>
+        <v>130.623219961822</v>
       </c>
       <c r="J2">
-        <v>126.6998839319281</v>
+        <v>118.1596356673324</v>
       </c>
       <c r="K2">
-        <v>119.9736837900761</v>
+        <v>110.7885655565318</v>
       </c>
       <c r="L2">
-        <v>89.67817251372996</v>
+        <v>78.64325888152293</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -903,34 +903,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1428661437573614</v>
+        <v>0.1428661437572208</v>
       </c>
       <c r="F3">
         <v>0.1428661437572329</v>
       </c>
       <c r="G3">
-        <v>8.874289589251789E-06</v>
+        <v>7.52475247524734E-06</v>
       </c>
       <c r="H3">
-        <v>2.885806188594972</v>
+        <v>11.15126264587184</v>
       </c>
       <c r="I3">
-        <v>3.452998631658056</v>
+        <v>29.26996816261203</v>
       </c>
       <c r="J3">
-        <v>10.77337567966383</v>
+        <v>49.66751069468344</v>
       </c>
       <c r="K3">
-        <v>10.77337567966364</v>
+        <v>65.82124614924373</v>
       </c>
       <c r="L3">
-        <v>96.26204936318474</v>
+        <v>151.367904901745</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -941,25 +941,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4">
-        <v>7902.500436191598</v>
+        <v>7902.500436191603</v>
       </c>
       <c r="E4">
-        <v>5208.83563886513</v>
+        <v>5208.600715664013</v>
       </c>
       <c r="F4">
-        <v>6019.968448905047</v>
+        <v>6013.835342359458</v>
       </c>
       <c r="G4">
-        <v>1955.251845453313</v>
+        <v>1955.996671072238</v>
       </c>
       <c r="H4">
-        <v>873.7533864308575</v>
+        <v>864.03961279328</v>
       </c>
       <c r="I4">
-        <v>278.4935082209674</v>
+        <v>43.05934840885483</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>324.9242086537222</v>
+        <v>373.3650289121648</v>
       </c>
       <c r="I5">
-        <v>103.958787457826</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1017,25 +1017,25 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>7.192904025628432</v>
+        <v>7.192904025628497</v>
       </c>
       <c r="E6">
-        <v>5.154705166510127</v>
+        <v>5.154705166510124</v>
       </c>
       <c r="F6">
-        <v>3.773525970328312</v>
+        <v>3.773525970328305</v>
       </c>
       <c r="G6">
-        <v>2.919320413190047</v>
+        <v>2.919320413190054</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.997869988364592</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6120476068965519</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1055,25 +1055,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7">
-        <v>2.055115435893887</v>
+        <v>2.055115435893883</v>
       </c>
       <c r="E7">
         <v>1.472772904717178</v>
       </c>
       <c r="F7">
-        <v>1.078150277236658</v>
+        <v>1.078150277236662</v>
       </c>
       <c r="G7">
-        <v>0.8340915466257279</v>
+        <v>0.8340915466257278</v>
       </c>
       <c r="H7">
-        <v>0.6272383204988472</v>
+        <v>0.5708199966756198</v>
       </c>
       <c r="I7">
-        <v>0.2263026046135579</v>
+        <v>0.1748707448275863</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1093,25 +1093,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>65.76369394860421</v>
+        <v>65.76369394860437</v>
       </c>
       <c r="E8">
-        <v>47.12873295094968</v>
+        <v>47.12873295095108</v>
       </c>
       <c r="F8">
-        <v>34.50080887157309</v>
+        <v>34.50080887157306</v>
       </c>
       <c r="G8">
-        <v>26.69092949202329</v>
+        <v>26.69092949202328</v>
       </c>
       <c r="H8">
-        <v>26.07660802722594</v>
+        <v>19.78569988364676</v>
       </c>
       <c r="I8">
-        <v>41.83791462387003</v>
+        <v>5.595863834482762</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1131,25 +1131,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9">
-        <v>5.137788589734709</v>
+        <v>5.137788589734708</v>
       </c>
       <c r="E9">
-        <v>3.681932261792944</v>
+        <v>3.681932261792945</v>
       </c>
       <c r="F9">
-        <v>2.695375693091648</v>
+        <v>2.695375693091647</v>
       </c>
       <c r="G9">
-        <v>2.08522886656432</v>
+        <v>2.085228866564319</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4371768620689656</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1169,25 +1169,25 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10">
-        <v>914.5263689727783</v>
+        <v>914.5263689727781</v>
       </c>
       <c r="E10">
         <v>655.3839425991441</v>
       </c>
       <c r="F10">
-        <v>479.7768733703134</v>
+        <v>479.7768733703131</v>
       </c>
       <c r="G10">
         <v>371.1707382484489</v>
       </c>
       <c r="H10">
-        <v>279.121052621987</v>
+        <v>254.0148985206509</v>
       </c>
       <c r="I10">
-        <v>71.08708507829799</v>
+        <v>77.81748144827588</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11">
         <v>31.85428925635519</v>
@@ -1216,16 +1216,16 @@
         <v>22.82798002311626</v>
       </c>
       <c r="F11">
-        <v>16.71132929716822</v>
+        <v>16.71132929716821</v>
       </c>
       <c r="G11">
         <v>12.92841897269878</v>
       </c>
       <c r="H11">
-        <v>7.794261279711802</v>
+        <v>8.847709948472088</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.710496544827587</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1245,25 +1245,25 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12">
         <v>1.027557717946942</v>
       </c>
       <c r="E12">
-        <v>0.7363864523585787</v>
+        <v>0.7363864523572019</v>
       </c>
       <c r="F12">
-        <v>0.5390751386183298</v>
+        <v>0.5390751386183293</v>
       </c>
       <c r="G12">
         <v>0.417045773312864</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.151</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.08743537241379314</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1283,10 +1283,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>36.75589192963098</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1301,16 +1301,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.266122497696566</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9710204661602535</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.424679033202835</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.209465830409044E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1321,22 +1321,22 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14">
-        <v>36.762165821926</v>
+        <v>6.556162686184025</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5.540027581195943</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4.863873857991206</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.833544150160027</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.560814372929178</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1359,22 +1359,22 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15">
-        <v>6.574392760289669</v>
+        <v>3565.121443885764</v>
       </c>
       <c r="E15">
-        <v>5.540027581195972</v>
+        <v>4033.249613366934</v>
       </c>
       <c r="F15">
-        <v>4.865415329676731</v>
+        <v>2431.936928995598</v>
       </c>
       <c r="G15">
-        <v>2.781780816043057</v>
+        <v>612.4096709442107</v>
       </c>
       <c r="H15">
-        <v>1.556044269352017</v>
+        <v>375.9391585381688</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1397,34 +1397,34 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16">
-        <v>4595.270727740749</v>
+        <v>5580.539483906166</v>
       </c>
       <c r="E16">
-        <v>3377.671886386955</v>
+        <v>4647.487638331002</v>
       </c>
       <c r="F16">
-        <v>2380.29182464207</v>
+        <v>2427.073055137607</v>
       </c>
       <c r="G16">
-        <v>1235.776510311558</v>
+        <v>2218.300935065657</v>
       </c>
       <c r="H16">
-        <v>604.4357352782904</v>
+        <v>1183.31440001808</v>
       </c>
       <c r="I16">
-        <v>275.5374165898841</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>25.88552561989401</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>67.0772896975822</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>65.95083743749444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1432,37 +1432,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>4551.934169158533</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>5364.330048883769</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2480.258089704985</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1543.222524915503</v>
+        <v>275.7521933986735</v>
       </c>
       <c r="H17">
-        <v>950.0524898043744</v>
+        <v>345.5984376706168</v>
       </c>
       <c r="I17">
-        <v>267.2712940921876</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>37.87815165796263</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>157.8099668160706</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>162.3610981031518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1473,34 +1473,34 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>86.45263157894735</v>
+        <v>1645.83784485081</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1476.362871472214</v>
       </c>
       <c r="F18">
-        <v>7.951576633123665</v>
+        <v>1570.875148661975</v>
       </c>
       <c r="G18">
-        <v>164.3326642440821</v>
+        <v>926.6031316154606</v>
       </c>
       <c r="H18">
-        <v>204.4193608429641</v>
+        <v>714.5782673492832</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>838.781242637367</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>351.2327253316211</v>
       </c>
       <c r="K18">
-        <v>524.6529989724283</v>
+        <v>901.5845759535827</v>
       </c>
       <c r="L18">
-        <v>573.7581099201993</v>
+        <v>926.7985544462402</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1511,19 +1511,19 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D19">
-        <v>258.8643340888564</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>466.5554482111066</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>592.263743209226</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>30.96060429219995</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>23.61574853156075</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1546,37 +1546,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>117</v>
       </c>
       <c r="D20">
-        <v>1337.028539442705</v>
+        <v>172.7</v>
       </c>
       <c r="E20">
-        <v>1011.067254503111</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>944.7956786215433</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1047.585188175362</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>854.8748639790908</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>844.2513000174373</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>450.6529989724278</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>271.7544750029034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1584,28 +1584,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>338.6496726982738</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>406.2301643058862</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>462.3052631578948</v>
       </c>
       <c r="G21">
-        <v>21.52393598712781</v>
+        <v>150.7833396584862</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>163.0375340380667</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>46.96805391860909</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1622,28 +1622,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D22">
-        <v>172.7</v>
+        <v>23.29769572277885</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>25.13825674674541</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.445411357097801</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>38.95</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1660,37 +1660,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23">
-        <v>337.8473684210526</v>
+        <v>2088.78</v>
       </c>
       <c r="E23">
-        <v>405.4184210526315</v>
+        <v>2123.37</v>
       </c>
       <c r="F23">
-        <v>463.0484233668762</v>
+        <v>2231.010000000001</v>
       </c>
       <c r="G23">
-        <v>143.4982505734556</v>
+        <v>2298.483323975085</v>
       </c>
       <c r="H23">
-        <v>170.5733921910887</v>
+        <v>2324.40096204614</v>
       </c>
       <c r="I23">
-        <v>131.6233921910887</v>
+        <v>1871.701456731046</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1567.771508052377</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1288.155046122691</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1231.142820084971</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1698,37 +1698,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24">
-        <v>24.1</v>
+        <v>173.640209608387</v>
       </c>
       <c r="E24">
-        <v>25.95</v>
+        <v>182.8141320302348</v>
       </c>
       <c r="F24">
-        <v>27.05683979101851</v>
+        <v>200.6982414823855</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>176.2400724321579</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>262.7457386608937</v>
       </c>
       <c r="I24">
-        <v>38.95</v>
+        <v>302.2132660210573</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>346.6937370317654</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>401.0399542479547</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>460.8774461036637</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1736,37 +1736,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>120</v>
       </c>
       <c r="D25">
-        <v>2088.780000000001</v>
+        <v>164.23</v>
       </c>
       <c r="E25">
-        <v>2123.37</v>
+        <v>361.6799999999999</v>
       </c>
       <c r="F25">
-        <v>2231.010000000001</v>
+        <v>583.6799999999999</v>
       </c>
       <c r="G25">
-        <v>2253.997023345573</v>
+        <v>1426.851704772</v>
       </c>
       <c r="H25">
-        <v>2344.757290200286</v>
+        <v>2250.824295587177</v>
       </c>
       <c r="I25">
-        <v>1996.645728813246</v>
+        <v>2753.120505486886</v>
       </c>
       <c r="J25">
-        <v>1635.249388324059</v>
+        <v>2734.681991384057</v>
       </c>
       <c r="K25">
-        <v>1333.302654463673</v>
+        <v>2732.410489621275</v>
       </c>
       <c r="L25">
-        <v>1261.225709519292</v>
+        <v>2887.999430577406</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1774,37 +1774,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>121</v>
       </c>
       <c r="D26">
-        <v>173.640209608387</v>
+        <v>0.2120264392857142</v>
       </c>
       <c r="E26">
-        <v>182.8141320302348</v>
+        <v>1.085192100765306</v>
       </c>
       <c r="F26">
-        <v>200.5605544520826</v>
+        <v>2.903255721428571</v>
       </c>
       <c r="G26">
-        <v>176.4486533603602</v>
+        <v>2.893333996428571</v>
       </c>
       <c r="H26">
-        <v>263.0698980552648</v>
+        <v>2.730916182142857</v>
       </c>
       <c r="I26">
-        <v>271.5542575654829</v>
+        <v>1.837907070663265</v>
       </c>
       <c r="J26">
-        <v>347.1723368881041</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>401.5698984236845</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>461.4562168351974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1812,37 +1812,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>122</v>
       </c>
       <c r="D27">
-        <v>164.23</v>
+        <v>2.74</v>
       </c>
       <c r="E27">
-        <v>361.6799999999999</v>
+        <v>20.13</v>
       </c>
       <c r="F27">
-        <v>583.6799999999999</v>
+        <v>20.46</v>
       </c>
       <c r="G27">
-        <v>1406.094709572</v>
+        <v>18.88705370817091</v>
       </c>
       <c r="H27">
-        <v>2132.804316071089</v>
+        <v>17.39028576</v>
       </c>
       <c r="I27">
-        <v>2470.017475985833</v>
+        <v>14.04454874934794</v>
       </c>
       <c r="J27">
-        <v>2683.010137291487</v>
+        <v>7.489222411064121</v>
       </c>
       <c r="K27">
-        <v>2647.966898118546</v>
+        <v>7.328450574337183</v>
       </c>
       <c r="L27">
-        <v>2670.775941018218</v>
+        <v>0.140984841599997</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1850,28 +1850,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>123</v>
       </c>
       <c r="D28">
-        <v>0.2120264392857142</v>
+        <v>1.72</v>
       </c>
       <c r="E28">
-        <v>1.085192100765306</v>
+        <v>1.76</v>
       </c>
       <c r="F28">
-        <v>2.903255721428571</v>
+        <v>1.85</v>
       </c>
       <c r="G28">
-        <v>2.893333996428571</v>
+        <v>7.794563904000001</v>
       </c>
       <c r="H28">
-        <v>2.730916182142856</v>
+        <v>0.7854986880000007</v>
       </c>
       <c r="I28">
-        <v>1.832809907066773</v>
+        <v>0.6042297600000006</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1888,37 +1888,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>124</v>
       </c>
       <c r="D29">
-        <v>2.74</v>
+        <v>550.08</v>
       </c>
       <c r="E29">
-        <v>20.13</v>
+        <v>983.02</v>
       </c>
       <c r="F29">
-        <v>20.46</v>
+        <v>1530.69</v>
       </c>
       <c r="G29">
-        <v>20.1858754848</v>
+        <v>2431.028439804823</v>
       </c>
       <c r="H29">
-        <v>21.57972863316614</v>
+        <v>3014.119159139736</v>
       </c>
       <c r="I29">
-        <v>20.19921935207316</v>
+        <v>3159.335542228745</v>
       </c>
       <c r="J29">
-        <v>12.40525525863086</v>
+        <v>3215.153895300907</v>
       </c>
       <c r="K29">
-        <v>11.98246574624737</v>
+        <v>3298.347277730251</v>
       </c>
       <c r="L29">
-        <v>0.1483014433105515</v>
+        <v>3558.647818664098</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1926,37 +1926,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>125</v>
       </c>
       <c r="D30">
-        <v>0.0729444266666667</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.06280218666666677</v>
+        <v>126.62</v>
       </c>
       <c r="F30">
-        <v>0.08450543013836487</v>
+        <v>259.57</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>961.6839851718081</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2084.224253728108</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4186.091546095831</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>5910.878043576142</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>6713.511797117829</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>7582.493154757907</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1964,37 +1964,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="D31">
-        <v>1.647055573333333</v>
+        <v>170.8961693548373</v>
       </c>
       <c r="E31">
-        <v>1.697197813333333</v>
+        <v>144.0823264014275</v>
       </c>
       <c r="F31">
-        <v>1.765494569861636</v>
+        <v>108.9114541736092</v>
       </c>
       <c r="G31">
-        <v>6.950128801811321</v>
+        <v>129.2233147559126</v>
       </c>
       <c r="H31">
-        <v>0.8029065600000008</v>
+        <v>98.19486601071448</v>
       </c>
       <c r="I31">
-        <v>0.6042297600000006</v>
+        <v>98.08010718099283</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>66.65732621607518</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>95.76841760974875</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>83.71861541835563</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2002,37 +2002,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32">
-        <v>550.08</v>
+        <v>16200.96593949488</v>
       </c>
       <c r="E32">
-        <v>983.02</v>
+        <v>16304.90697674419</v>
       </c>
       <c r="F32">
-        <v>1530.69</v>
+        <v>16304.90697674419</v>
       </c>
       <c r="G32">
-        <v>2485.621673985703</v>
+        <v>15158.79397852655</v>
       </c>
       <c r="H32">
-        <v>2985.657885619106</v>
+        <v>15040.37279447655</v>
       </c>
       <c r="I32">
-        <v>3131.202673515517</v>
+        <v>15287.70398163356</v>
       </c>
       <c r="J32">
-        <v>3161.829503041327</v>
+        <v>15439.69564290825</v>
       </c>
       <c r="K32">
-        <v>3307.94944141248</v>
+        <v>15533.64431192909</v>
       </c>
       <c r="L32">
-        <v>3557.189016817086</v>
+        <v>16304.90697674419</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2040,37 +2040,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>121.4954954838869</v>
       </c>
       <c r="E33">
-        <v>126.62</v>
+        <v>127.1084867608177</v>
       </c>
       <c r="F33">
-        <v>259.5699999999999</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="G33">
-        <v>982.22402470968</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="H33">
-        <v>2112.460378861063</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="I33">
-        <v>3126.093034905408</v>
+        <v>1422.077713192205</v>
       </c>
       <c r="J33">
-        <v>4266.586793596279</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="K33">
-        <v>4982.770844815868</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="L33">
-        <v>5820.848340245792</v>
+        <v>1422.077713192206</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2078,37 +2078,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D34">
-        <v>170.8961693548305</v>
+        <v>28.23347222222222</v>
       </c>
       <c r="E34">
-        <v>126.9842806867994</v>
+        <v>21.17510416666667</v>
       </c>
       <c r="F34">
-        <v>108.9586942635267</v>
+        <v>14.11673611111111</v>
       </c>
       <c r="G34">
-        <v>129.271575773657</v>
+        <v>7.058368055555556</v>
       </c>
       <c r="H34">
-        <v>65.16334015749052</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>99.02360983557004</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>98.87592570875566</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>101.9445593667087</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>80.33828916189015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2116,37 +2116,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35">
-        <v>16200.96593949489</v>
+        <v>2.551922221624056</v>
       </c>
       <c r="E35">
-        <v>16304.90697674419</v>
+        <v>2.551922221624057</v>
       </c>
       <c r="F35">
-        <v>16304.90697674419</v>
+        <v>2.551922221624057</v>
       </c>
       <c r="G35">
-        <v>15179.27410124667</v>
+        <v>0.1880208333333444</v>
       </c>
       <c r="H35">
-        <v>15060.73159685666</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>15348.01745480509</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>15667.04165698992</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>16068.64003382364</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>16304.90697674419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2154,37 +2154,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D36">
-        <v>121.4954954838869</v>
+        <v>3.664258461538462</v>
       </c>
       <c r="E36">
-        <v>127.1084867608177</v>
+        <v>5.221568307692309</v>
       </c>
       <c r="F36">
-        <v>1399.191537537256</v>
+        <v>3.481045538461538</v>
       </c>
       <c r="G36">
-        <v>1399.191537537256</v>
+        <v>1.740522769230768</v>
       </c>
       <c r="H36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2192,22 +2192,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D37">
-        <v>28.23347222222222</v>
+        <v>17.76944615384616</v>
       </c>
       <c r="E37">
-        <v>21.17510416666666</v>
+        <v>25.32146076923077</v>
       </c>
       <c r="F37">
-        <v>14.11673611111111</v>
+        <v>16.88097384615385</v>
       </c>
       <c r="G37">
-        <v>7.058368055555554</v>
+        <v>8.44048692307692</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2233,19 +2233,19 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D38">
-        <v>2.551922221624046</v>
+        <v>0.6401415384615385</v>
       </c>
       <c r="E38">
-        <v>2.551922221624046</v>
+        <v>0.9122016923076923</v>
       </c>
       <c r="F38">
-        <v>2.551922221624046</v>
+        <v>0.6081344615384616</v>
       </c>
       <c r="G38">
-        <v>0.1880208333333332</v>
+        <v>0.3040672307692308</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2271,19 +2271,19 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D39">
-        <v>3.664258461538461</v>
+        <v>31.832</v>
       </c>
       <c r="E39">
-        <v>5.221568307692307</v>
+        <v>31.832</v>
       </c>
       <c r="F39">
-        <v>3.481045538461538</v>
+        <v>31.832</v>
       </c>
       <c r="G39">
-        <v>1.740522769230769</v>
+        <v>9.06261872688526</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>29.62314062255475</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>23.15422749106624</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2306,22 +2306,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D40">
-        <v>17.76944615384615</v>
+        <v>1.031534070712826</v>
       </c>
       <c r="E40">
-        <v>25.32146076923076</v>
+        <v>0.5798166094675679</v>
       </c>
       <c r="F40">
-        <v>16.88097384615385</v>
+        <v>0.6005694805273222</v>
       </c>
       <c r="G40">
-        <v>8.440486923076918</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2344,25 +2344,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D41">
-        <v>0.6401415384615385</v>
+        <v>28.57361002500173</v>
       </c>
       <c r="E41">
-        <v>0.9122016923076923</v>
+        <v>30.49835365799407</v>
       </c>
       <c r="F41">
-        <v>0.6081344615384615</v>
+        <v>12.14008307065944</v>
       </c>
       <c r="G41">
-        <v>0.3040672307692309</v>
+        <v>12.29377877483013</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2.066882642095091</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2385,22 +2385,22 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D42">
-        <v>32.81610555316285</v>
+        <v>0.8023042772211539</v>
       </c>
       <c r="E42">
-        <v>32.81610555316284</v>
+        <v>0.8117432532545905</v>
       </c>
       <c r="F42">
-        <v>32.81610555316284</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>9.062618726884999</v>
+        <v>0.3893957078000494</v>
       </c>
       <c r="H42">
-        <v>32.81610555316284</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>23.15422749106624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2420,22 +2420,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D43">
-        <v>7.162636621725248</v>
+        <v>26.9</v>
       </c>
       <c r="E43">
-        <v>8.399207358690306</v>
+        <v>26.09174742604054</v>
       </c>
       <c r="F43">
-        <v>9.124355899161767</v>
+        <v>30.1571674864791</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>15.13080464594477</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2461,22 +2461,22 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D44">
-        <v>18.9939309466118</v>
+        <v>1.813684210526316</v>
       </c>
       <c r="E44">
-        <v>17.75671354353991</v>
+        <v>2.5845</v>
       </c>
       <c r="F44">
-        <v>16.67981802380703</v>
+        <v>1.723</v>
       </c>
       <c r="G44">
-        <v>16.37677335478698</v>
+        <v>0.8615</v>
       </c>
       <c r="H44">
-        <v>0.4557408811793148</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2496,37 +2496,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>207.4859999999999</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>217.79</v>
       </c>
       <c r="F45">
-        <v>0.743160208981493</v>
+        <v>246.3149999999999</v>
       </c>
       <c r="G45">
-        <v>9.826064012872191</v>
+        <v>300.6009525070324</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>311.5817416163494</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>318.7563482716291</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>322.0556658683218</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>326.2606952244111</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>326.2606952244111</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2534,28 +2534,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D46">
-        <v>26.9</v>
+        <v>21.256</v>
       </c>
       <c r="E46">
-        <v>30.21459828361076</v>
+        <v>9.03392105263158</v>
       </c>
       <c r="F46">
-        <v>14.73934414479977</v>
+        <v>13.17367013172496</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>8.125420131724955</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2.014170131724952</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2.014170131724952</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2572,37 +2572,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D47">
-        <v>3.446</v>
+        <v>2036.596301775395</v>
       </c>
       <c r="E47">
-        <v>2.584499999999999</v>
+        <v>2084.960126540209</v>
       </c>
       <c r="F47">
-        <v>1.723</v>
+        <v>2048.975854663244</v>
       </c>
       <c r="G47">
-        <v>0.8615000000000002</v>
+        <v>1966.821245744483</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1038.354652628673</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1501.485097168653</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1529.967390269577</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1544.796111596151</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1541.034607355792</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2610,37 +2610,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D48">
-        <v>207.4859999999999</v>
+        <v>16910.28040664012</v>
       </c>
       <c r="E48">
-        <v>217.79</v>
+        <v>14825.29170032893</v>
       </c>
       <c r="F48">
-        <v>246.315</v>
+        <v>12017.64838192721</v>
       </c>
       <c r="G48">
-        <v>300.6967023662375</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="H48">
-        <v>311.6794054298787</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="I48">
-        <v>318.0116046768337</v>
+        <v>16912.51765626996</v>
       </c>
       <c r="J48">
-        <v>319.2974590751298</v>
+        <v>13679.04552643003</v>
       </c>
       <c r="K48">
-        <v>319.2974590751297</v>
+        <v>15161.93880012698</v>
       </c>
       <c r="L48">
-        <v>319.2974590751297</v>
+        <v>16524.89379499301</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2648,37 +2648,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D49">
-        <v>21.256</v>
+        <v>19.37985714285714</v>
       </c>
       <c r="E49">
-        <v>9.033921052631579</v>
+        <v>14.53489285714286</v>
       </c>
       <c r="F49">
-        <v>14.8056395233955</v>
+        <v>9.68992857142857</v>
       </c>
       <c r="G49">
-        <v>9.757389523395496</v>
+        <v>4.844964285714284</v>
       </c>
       <c r="H49">
-        <v>3.646139523395497</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>3.646139523395496</v>
+        <v>40.698</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>40.698</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>40.698</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>40.69799999999999</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2686,37 +2686,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D50">
-        <v>2036.633030081447</v>
+        <v>1.462085371617629</v>
       </c>
       <c r="E50">
-        <v>2085.0769005603</v>
+        <v>1.096564028713222</v>
       </c>
       <c r="F50">
-        <v>2049.083331797025</v>
+        <v>0.7310426858088148</v>
       </c>
       <c r="G50">
-        <v>1992.969760906669</v>
+        <v>0.3655213429044072</v>
       </c>
       <c r="H50">
-        <v>1193.43054470659</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1352.89541186316</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1400.632105340511</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>1414.407857973098</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1411.298740738389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2724,37 +2724,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D51">
-        <v>16904.18064003181</v>
+        <v>40.34932999999998</v>
       </c>
       <c r="E51">
-        <v>14820.71687537269</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>11966.45262621745</v>
+        <v>32.78670999999999</v>
       </c>
       <c r="G51">
-        <v>21455.88372093023</v>
+        <v>30.15816999999999</v>
       </c>
       <c r="H51">
-        <v>21455.88372093023</v>
+        <v>39.79049279882724</v>
       </c>
       <c r="I51">
-        <v>17202.38498871173</v>
+        <v>40.34932999999999</v>
       </c>
       <c r="J51">
-        <v>21455.88372093023</v>
+        <v>33.56594141010466</v>
       </c>
       <c r="K51">
-        <v>21445.21629463303</v>
+        <v>18.08802571161988</v>
       </c>
       <c r="L51">
-        <v>21455.88372093023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2762,34 +2762,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D52">
-        <v>19.37985714285708</v>
+        <v>181.334636</v>
       </c>
       <c r="E52">
-        <v>14.53489285714286</v>
+        <v>190.8105959999999</v>
       </c>
       <c r="F52">
-        <v>9.68992857142857</v>
+        <v>147.347332</v>
       </c>
       <c r="G52">
-        <v>4.844964285714284</v>
+        <v>191.525796</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>181.8934732011728</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>181.334636</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>150.849289631294</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>81.28971555104469</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2803,31 +2803,31 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D53">
-        <v>1.724375335775324</v>
+        <v>15.665034</v>
       </c>
       <c r="E53">
-        <v>1.293281501831501</v>
+        <v>13.483404</v>
       </c>
       <c r="F53">
-        <v>0.8621876678876678</v>
+        <v>12.728958</v>
       </c>
       <c r="G53">
-        <v>0.6269688339438876</v>
+        <v>15.665034</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>15.665034</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>15.665034</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>13.03148313568769</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>7.022409982158312</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -2841,34 +2841,34 @@
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="F54">
-        <v>2.628540000000001</v>
+        <v>13.65014831989247</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="I54">
-        <v>10.19116</v>
+        <v>66.026</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2876,37 +2876,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55">
-        <v>221.683966</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>190.810596</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>177.505502</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>221.683966</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>216.8692072997328</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="I55">
-        <v>160.6041353631789</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="J55">
-        <v>78.05075373798468</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>75.7482797597558</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2914,31 +2914,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D56">
-        <v>15.665034</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="E56">
-        <v>13.48340400000001</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>12.728958</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="G56">
-        <v>15.665034</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>15.3248047984822</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>12.06904656741949</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>5.515363754504271</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2955,34 +2955,34 @@
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D57">
-        <v>66.026</v>
+        <v>87.58499999999999</v>
       </c>
       <c r="E57">
-        <v>66.026</v>
+        <v>163.3332797597558</v>
       </c>
       <c r="F57">
-        <v>15.72042083333334</v>
+        <v>120.0395886429022</v>
       </c>
       <c r="G57">
-        <v>66.026</v>
+        <v>45.99528832748308</v>
       </c>
       <c r="H57">
-        <v>66.026</v>
+        <v>87.58499999999999</v>
       </c>
       <c r="I57">
-        <v>66.026</v>
+        <v>120.0395886429022</v>
       </c>
       <c r="J57">
-        <v>66.026</v>
+        <v>100.655337174463</v>
       </c>
       <c r="K57">
-        <v>66.026</v>
+        <v>128.1036169342188</v>
       </c>
       <c r="L57">
-        <v>66.026</v>
+        <v>100.655337174463</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2990,7 +2990,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
         <v>116</v>
@@ -3008,19 +3008,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>109.0692459383754</v>
+        <v>32.4545886429022</v>
       </c>
       <c r="I58">
-        <v>19.36403382138043</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>89.58292287360925</v>
+        <v>19.38425146843925</v>
       </c>
       <c r="K58">
-        <v>19.36403382138043</v>
+        <v>48.3</v>
       </c>
       <c r="L58">
-        <v>104.2038890522288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3031,34 +3031,34 @@
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.2559717086834734</v>
       </c>
       <c r="E59">
-        <v>87.58499999999999</v>
+        <v>1.448720240244215</v>
       </c>
       <c r="F59">
-        <v>163.3332797597558</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3066,37 +3066,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D60">
-        <v>143.9692459383753</v>
+        <v>5.649397147293032</v>
       </c>
       <c r="E60">
-        <v>75.7482797597558</v>
+        <v>7.674402341051636</v>
       </c>
       <c r="F60">
-        <v>13.83464311385345</v>
+        <v>9.427</v>
       </c>
       <c r="G60">
-        <v>71.13132192627343</v>
+        <v>4.889586416628297</v>
       </c>
       <c r="H60">
-        <v>33.19867693523388</v>
+        <v>0.1947015814467147</v>
       </c>
       <c r="I60">
-        <v>157.8038890522288</v>
+        <v>0.2639831805060915</v>
       </c>
       <c r="J60">
-        <v>87.58499999999999</v>
+        <v>0.3322723593951087</v>
       </c>
       <c r="K60">
-        <v>109.5038890522288</v>
+        <v>0.398501306933833</v>
       </c>
       <c r="L60">
-        <v>19.36403382138043</v>
+        <v>0.455970539788197</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3104,37 +3104,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>181.7295367611746</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>479.064595519408</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>737.180105149445</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1007.066086265179</v>
       </c>
       <c r="H61">
-        <v>34.9</v>
+        <v>1007.066086265179</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1007.066086265179</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1007.066086265179</v>
       </c>
       <c r="K61">
-        <v>48.3</v>
+        <v>1007.066086265179</v>
       </c>
       <c r="L61">
-        <v>53.59999999999999</v>
+        <v>1007.066086265179</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3142,37 +3142,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D62">
-        <v>0.2357540616246499</v>
+        <v>3268.416000000001</v>
       </c>
       <c r="E62">
-        <v>1.448720240244215</v>
+        <v>3261.199999999999</v>
       </c>
       <c r="F62">
-        <v>11.83907712639076</v>
+        <v>3036.045000000001</v>
       </c>
       <c r="G62">
-        <v>11.83907712639076</v>
+        <v>3416.36331791373</v>
       </c>
       <c r="H62">
-        <v>11.83907712639076</v>
+        <v>4140.238347426248</v>
       </c>
       <c r="I62">
-        <v>11.83907712639076</v>
+        <v>3998.561991471973</v>
       </c>
       <c r="J62">
-        <v>11.83907712639076</v>
+        <v>4101.078905951092</v>
       </c>
       <c r="K62">
-        <v>11.83907712639076</v>
+        <v>4007.625274678386</v>
       </c>
       <c r="L62">
-        <v>11.83907712639076</v>
+        <v>3900.16365131245</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3180,37 +3180,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D63">
-        <v>9.427</v>
+        <v>517.228</v>
       </c>
       <c r="E63">
-        <v>9.427</v>
+        <v>379.371</v>
       </c>
       <c r="F63">
-        <v>9.423961829889782</v>
+        <v>384.232</v>
       </c>
       <c r="G63">
-        <v>4.85148819745024</v>
+        <v>241.9391769076232</v>
       </c>
       <c r="H63">
-        <v>0.1947015814467148</v>
+        <v>388.6061175653196</v>
       </c>
       <c r="I63">
-        <v>0.2639831805060916</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0.3322723593951087</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0.3985013069338333</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>0.3985013069338333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3218,37 +3218,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D64">
-        <v>176.1037639523274</v>
+        <v>5882.633064516128</v>
       </c>
       <c r="E64">
-        <v>477.2954981126425</v>
+        <v>5202.961189331324</v>
       </c>
       <c r="F64">
-        <v>768.0567557743769</v>
+        <v>5199.168934687292</v>
       </c>
       <c r="G64">
-        <v>1013.741434705847</v>
+        <v>5329.53751903926</v>
       </c>
       <c r="H64">
-        <v>1013.741434705847</v>
+        <v>4952.691042391401</v>
       </c>
       <c r="I64">
-        <v>1013.741434705847</v>
+        <v>5491.517898282336</v>
       </c>
       <c r="J64">
-        <v>1013.741434705847</v>
+        <v>5519.86435851006</v>
       </c>
       <c r="K64">
-        <v>1013.741434705847</v>
+        <v>5606.943538811816</v>
       </c>
       <c r="L64">
-        <v>1013.741434705847</v>
+        <v>5571.031388693428</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3256,37 +3256,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D65">
-        <v>3268.416000000002</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>3261.199999999999</v>
+        <v>79.03495772035158</v>
       </c>
       <c r="F65">
-        <v>3036.045000000001</v>
+        <v>71.64285555368677</v>
       </c>
       <c r="G65">
-        <v>3410.130229623134</v>
+        <v>14.38087499837399</v>
       </c>
       <c r="H65">
-        <v>4032.419666541952</v>
+        <v>77.95978541859463</v>
       </c>
       <c r="I65">
-        <v>3982.126018035695</v>
+        <v>69.4764842047893</v>
       </c>
       <c r="J65">
-        <v>3973.145353632755</v>
+        <v>96.87501902942488</v>
       </c>
       <c r="K65">
-        <v>3921.674780990929</v>
+        <v>66.42263657377464</v>
       </c>
       <c r="L65">
-        <v>3889.503162675444</v>
+        <v>44.12390432985913</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3294,34 +3294,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D66">
-        <v>517.228</v>
+        <v>42118.26218835742</v>
       </c>
       <c r="E66">
-        <v>379.3709999999999</v>
+        <v>27891.88612730928</v>
       </c>
       <c r="F66">
-        <v>384.232</v>
+        <v>26774.97572033254</v>
       </c>
       <c r="G66">
-        <v>226.3517716557524</v>
+        <v>25035.61691675579</v>
       </c>
       <c r="H66">
-        <v>469.5438168022568</v>
+        <v>22720.75571816101</v>
       </c>
       <c r="I66">
-        <v>238.8476762844213</v>
+        <v>11105.49322872545</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>6446.195151974936</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1523.320514179429</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3332,37 +3332,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D67">
-        <v>5882.633064516128</v>
+        <v>15.38006294117647</v>
       </c>
       <c r="E67">
-        <v>5202.962489013005</v>
+        <v>11.53504720588235</v>
       </c>
       <c r="F67">
-        <v>5199.170234368971</v>
+        <v>15.32353720588235</v>
       </c>
       <c r="G67">
-        <v>5347.865853413571</v>
+        <v>3.845015735294115</v>
       </c>
       <c r="H67">
-        <v>4786.826003236202</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>5287.379394456153</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>5605.843483673962</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>5620.764678286809</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>5619.08783689416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3370,37 +3370,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>46.97397724516862</v>
       </c>
       <c r="E68">
-        <v>79.03365859992739</v>
+        <v>33.6141285989011</v>
       </c>
       <c r="F68">
-        <v>71.64155643326168</v>
+        <v>26.81195752747253</v>
       </c>
       <c r="G68">
-        <v>14.19577378324875</v>
+        <v>11.20470953296703</v>
       </c>
       <c r="H68">
-        <v>77.92451534580557</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>71.56119395713775</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>91.51080346415075</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>69.14369112644465</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>51.31248683891752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3408,34 +3408,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D69">
-        <v>39634.94629756455</v>
+        <v>63.32993</v>
       </c>
       <c r="E69">
-        <v>27814.03874627228</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>26672.73975708418</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>24887.28067489016</v>
+        <v>34.69812878189617</v>
       </c>
       <c r="H69">
-        <v>27577.54801019078</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>11755.8906783558</v>
+        <v>109.11892</v>
       </c>
       <c r="J69">
-        <v>14093.04601547541</v>
+        <v>95.26354838328122</v>
       </c>
       <c r="K69">
-        <v>2836.932791691072</v>
+        <v>14.74183353351019</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3446,34 +3446,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D70">
-        <v>32.00732460784317</v>
+        <v>559.28979</v>
       </c>
       <c r="E70">
-        <v>11.53504720588235</v>
+        <v>458.37410625</v>
       </c>
       <c r="F70">
-        <v>31.95079887254901</v>
+        <v>336.08657</v>
       </c>
       <c r="G70">
-        <v>3.845015735294115</v>
+        <v>163.2853119148056</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>513.5008</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>527.3561716167188</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>69.37333427534213</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -3487,31 +3487,31 @@
         <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D71">
-        <v>74.81508835627973</v>
+        <v>19.25628</v>
       </c>
       <c r="E71">
-        <v>54.49496193223442</v>
+        <v>14.17651875</v>
       </c>
       <c r="F71">
-        <v>47.69279086080586</v>
+        <v>10.39443</v>
       </c>
       <c r="G71">
-        <v>18.16498731074481</v>
+        <v>6.123199196805202</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>19.25628</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>19.25628</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2.601500035325329</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -3525,34 +3525,34 @@
         <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>126.8606857142857</v>
       </c>
       <c r="E72">
-        <v>17.00367624999998</v>
+        <v>263.6637207209175</v>
       </c>
       <c r="F72">
-        <v>58.90176999999997</v>
+        <v>231.9485492923461</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3560,28 +3560,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73">
-        <v>622.6197200000001</v>
+        <v>85.65032730172624</v>
       </c>
       <c r="E73">
-        <v>441.37043</v>
+        <v>41.41983569411379</v>
       </c>
       <c r="F73">
-        <v>277.1848000000001</v>
+        <v>8.694736842105211</v>
       </c>
       <c r="G73">
-        <v>198.4609924824161</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>70.82619514972809</v>
+        <v>59.09068128889157</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>235.4244837390615</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3598,28 +3598,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D74">
-        <v>19.25628</v>
+        <v>1130.686465483155</v>
       </c>
       <c r="E74">
-        <v>14.17651875</v>
+        <v>991.514603804975</v>
       </c>
       <c r="F74">
-        <v>10.39443</v>
+        <v>754.9945049376306</v>
       </c>
       <c r="G74">
-        <v>6.137968839662353</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>2.190500880919426</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3639,34 +3639,34 @@
         <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D75">
-        <v>189.1748962406017</v>
+        <v>147.3152072151184</v>
       </c>
       <c r="E75">
-        <v>246.1303247721756</v>
+        <v>171.4005605009114</v>
       </c>
       <c r="F75">
-        <v>198.8366007120253</v>
+        <v>404.8937582202643</v>
       </c>
       <c r="G75">
-        <v>397.267</v>
+        <v>1183.323613570501</v>
       </c>
       <c r="H75">
-        <v>397.267</v>
+        <v>1363.652</v>
       </c>
       <c r="I75">
-        <v>293.0178474082753</v>
+        <v>1304.561318711108</v>
       </c>
       <c r="J75">
-        <v>397.267</v>
+        <v>1363.652</v>
       </c>
       <c r="K75">
-        <v>397.267</v>
+        <v>1363.652</v>
       </c>
       <c r="L75">
-        <v>397.267</v>
+        <v>1128.227516260938</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3677,34 +3677,34 @@
         <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="G76">
-        <v>210.1690851824623</v>
+        <v>523.97</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="K76">
-        <v>163.0829672061911</v>
+        <v>523.97</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3712,37 +3712,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D77">
-        <v>972.5431519094172</v>
+        <v>43.61390455624549</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>43.61390455624549</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>34.25901207732596</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>16.21479140513649</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1.745323646548612</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2.365632742881153</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2.973990608839467</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>3.56154444511148</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>3.666583356548057</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3750,37 +3750,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D78">
-        <v>391.1088480905828</v>
+        <v>82.60509544375452</v>
       </c>
       <c r="E78">
-        <v>1204.335</v>
+        <v>111.9570954437545</v>
       </c>
       <c r="F78">
-        <v>1168.583</v>
+        <v>134.813987922674</v>
       </c>
       <c r="G78">
-        <v>968.0796383896143</v>
+        <v>134.813987922674</v>
       </c>
       <c r="H78">
-        <v>1363.652</v>
+        <v>134.813987922674</v>
       </c>
       <c r="I78">
-        <v>1363.652</v>
+        <v>134.8139879226741</v>
       </c>
       <c r="J78">
-        <v>1363.652</v>
+        <v>134.813987922674</v>
       </c>
       <c r="K78">
-        <v>1200.569032793809</v>
+        <v>134.8139879226741</v>
       </c>
       <c r="L78">
-        <v>1363.652</v>
+        <v>134.813987922674</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3788,37 +3788,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D79">
-        <v>523.97</v>
+        <v>3307.747</v>
       </c>
       <c r="E79">
-        <v>523.97</v>
+        <v>3150.42</v>
       </c>
       <c r="F79">
-        <v>523.97</v>
+        <v>3264.414000000001</v>
       </c>
       <c r="G79">
-        <v>523.97</v>
+        <v>2978.331736797114</v>
       </c>
       <c r="H79">
-        <v>523.97</v>
+        <v>3112.920382247879</v>
       </c>
       <c r="I79">
-        <v>523.97</v>
+        <v>2975.145933564144</v>
       </c>
       <c r="J79">
-        <v>523.97</v>
+        <v>3000.772951178849</v>
       </c>
       <c r="K79">
-        <v>523.97</v>
+        <v>3152.967176826171</v>
       </c>
       <c r="L79">
-        <v>523.97</v>
+        <v>3265.867600040604</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3826,37 +3826,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D80">
-        <v>43.61390455624549</v>
+        <v>949.6909999999999</v>
       </c>
       <c r="E80">
-        <v>43.61390455624549</v>
+        <v>866.5870000000001</v>
       </c>
       <c r="F80">
-        <v>34.05393963262703</v>
+        <v>847.413</v>
       </c>
       <c r="G80">
-        <v>16.02932219604725</v>
+        <v>829.3214365303801</v>
       </c>
       <c r="H80">
-        <v>1.421164252177336</v>
+        <v>753.0657332937853</v>
       </c>
       <c r="I80">
-        <v>1.887032886542609</v>
+        <v>156.6162523934594</v>
       </c>
       <c r="J80">
-        <v>2.495390752500866</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>3.031600269381682</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>3.145281857868513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3864,37 +3864,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D81">
-        <v>82.60509544375452</v>
+        <v>79217.14186748723</v>
       </c>
       <c r="E81">
-        <v>111.9570954437545</v>
+        <v>70720.61381623764</v>
       </c>
       <c r="F81">
-        <v>135.019060367373</v>
+        <v>63040.75572271757</v>
       </c>
       <c r="G81">
-        <v>135.019060367373</v>
+        <v>72853.01097550038</v>
       </c>
       <c r="H81">
-        <v>135.019060367373</v>
+        <v>61074.41664528807</v>
       </c>
       <c r="I81">
-        <v>114.1607323130022</v>
+        <v>60971.64050718318</v>
       </c>
       <c r="J81">
-        <v>135.019060367373</v>
+        <v>55390.07848747831</v>
       </c>
       <c r="K81">
-        <v>135.019060367373</v>
+        <v>59028.27592587206</v>
       </c>
       <c r="L81">
-        <v>135.019060367373</v>
+        <v>52872.39265484892</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3902,37 +3902,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="D82">
-        <v>3307.746999999999</v>
+        <v>344.4223559455966</v>
       </c>
       <c r="E82">
-        <v>3150.420000000001</v>
+        <v>307.4809296358159</v>
       </c>
       <c r="F82">
-        <v>3264.414000000001</v>
+        <v>274.090242272685</v>
       </c>
       <c r="G82">
-        <v>2960.197814628413</v>
+        <v>316.7522216326104</v>
       </c>
       <c r="H82">
-        <v>3123.848645576478</v>
+        <v>3716.353710907311</v>
       </c>
       <c r="I82">
-        <v>2999.579660044168</v>
+        <v>265.0940891616659</v>
       </c>
       <c r="J82">
-        <v>3046.590271336715</v>
+        <v>240.8264282064274</v>
       </c>
       <c r="K82">
-        <v>3192.29559538444</v>
+        <v>256.6446779385741</v>
       </c>
       <c r="L82">
-        <v>3303.546030382302</v>
+        <v>229.8799680645605</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3943,34 +3943,34 @@
         <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83">
-        <v>949.6909999999999</v>
+        <v>6544.024762966335</v>
       </c>
       <c r="E83">
-        <v>866.5870000000001</v>
+        <v>5842.137663080503</v>
       </c>
       <c r="F83">
-        <v>847.413</v>
+        <v>5207.714603181018</v>
       </c>
       <c r="G83">
-        <v>847.413</v>
+        <v>6018.292211019598</v>
       </c>
       <c r="H83">
-        <v>724.6406532894733</v>
+        <v>5329.110981678408</v>
       </c>
       <c r="I83">
-        <v>710.3291668970669</v>
+        <v>5036.787694071654</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>4575.702135922122</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>4876.248880832909</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>4367.71939322665</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3981,34 +3981,34 @@
         <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D84">
-        <v>79217.14186748723</v>
+        <v>205539.0254968779</v>
       </c>
       <c r="E84">
-        <v>70720.61381623764</v>
+        <v>219100.3696534287</v>
       </c>
       <c r="F84">
-        <v>63062.10694215229</v>
+        <v>211333.8333026214</v>
       </c>
       <c r="G84">
-        <v>72853.43318830669</v>
+        <v>210507.3487231962</v>
       </c>
       <c r="H84">
-        <v>56903.77832428554</v>
+        <v>188726.7996813316</v>
       </c>
       <c r="I84">
-        <v>47547.75670454175</v>
+        <v>149360.4282077233</v>
       </c>
       <c r="J84">
-        <v>41395.24242643061</v>
+        <v>148982.2762371601</v>
       </c>
       <c r="K84">
-        <v>47547.39112322027</v>
+        <v>128331.019439511</v>
       </c>
       <c r="L84">
-        <v>49500.78089883263</v>
+        <v>53016.30627192585</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4019,34 +4019,34 @@
         <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85">
-        <v>344.4223559455966</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>307.4809296358159</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>274.1830736615318</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>316.7540573404639</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>3462.572044990968</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>206.7293769762684</v>
+        <v>21094.82679765696</v>
       </c>
       <c r="J85">
-        <v>179.9793148975243</v>
+        <v>9548.400069402052</v>
       </c>
       <c r="K85">
-        <v>206.727787492262</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>215.2207865166636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4057,34 +4057,34 @@
         <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86">
-        <v>6544.024762966335</v>
+        <v>5592.27312150198</v>
       </c>
       <c r="E86">
-        <v>5842.137663080503</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>5209.478399569102</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>6018.327089468812</v>
+        <v>9597.4</v>
       </c>
       <c r="H86">
-        <v>4965.19764942101</v>
+        <v>12181.8</v>
       </c>
       <c r="I86">
-        <v>3927.8581625491</v>
+        <v>14426.4</v>
       </c>
       <c r="J86">
-        <v>3419.606983052964</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>3927.82796235298</v>
+        <v>18915.65</v>
       </c>
       <c r="L86">
-        <v>4089.194943816607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4095,34 +4095,34 @@
         <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D87">
-        <v>207130.0072474388</v>
+        <v>7440.438491302202</v>
       </c>
       <c r="E87">
-        <v>219100.3696534287</v>
+        <v>8087.043507027059</v>
       </c>
       <c r="F87">
-        <v>211310.0781553256</v>
+        <v>4769.284525849926</v>
       </c>
       <c r="G87">
-        <v>210507.3487231961</v>
+        <v>8428.673142576763</v>
       </c>
       <c r="H87">
-        <v>190583.4993710558</v>
+        <v>8880.115393079437</v>
       </c>
       <c r="I87">
-        <v>177271.3947240247</v>
+        <v>9277.091423365639</v>
       </c>
       <c r="J87">
-        <v>152726.575982677</v>
+        <v>9679.933362930615</v>
       </c>
       <c r="K87">
-        <v>136674.6529337124</v>
+        <v>10042.64657414973</v>
       </c>
       <c r="L87">
-        <v>35631.0986544397</v>
+        <v>10345.59247099006</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4130,37 +4130,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D88">
-        <v>3815.332465031336</v>
+        <v>0.291</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="G88">
-        <v>9597.4</v>
+        <v>0.105</v>
       </c>
       <c r="H88">
-        <v>12181.8</v>
+        <v>0.06937853016278178</v>
       </c>
       <c r="I88">
-        <v>8705.555281845032</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>10266.6491673007</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>11815.46186957542</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>21160.29999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4171,34 +4171,34 @@
         <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D89">
-        <v>7440.438491302202</v>
+        <v>0.2910000000000001</v>
       </c>
       <c r="E89">
-        <v>8087.043507027061</v>
+        <v>0.439</v>
       </c>
       <c r="F89">
-        <v>4769.284525849924</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>8428.673142576761</v>
+        <v>0.03375706032556355</v>
       </c>
       <c r="H89">
-        <v>8880.115393079437</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>9277.091423365639</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>9679.933362930615</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>10042.64657414973</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>10345.59247099006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4209,34 +4209,34 @@
         <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>225.296</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>231.634</v>
       </c>
       <c r="F90">
-        <v>0.264</v>
+        <v>225.5130000000001</v>
       </c>
       <c r="G90">
-        <v>0.105</v>
+        <v>227.6453920091087</v>
       </c>
       <c r="H90">
-        <v>0.06937853016278178</v>
+        <v>404.4030365866749</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>537.2481533950136</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>831.3376012963066</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>935.5503822147409</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1743.415357717957</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4244,25 +4244,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D91">
-        <v>0.5819999999999999</v>
+        <v>66.91234564031244</v>
       </c>
       <c r="E91">
-        <v>0.439</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="F91">
-        <v>0.105</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="G91">
-        <v>0.03375706032556355</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>6.639764936336924</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4282,37 +4282,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D92">
-        <v>225.296</v>
+        <v>229.1565474368415</v>
       </c>
       <c r="E92">
-        <v>231.6339999999999</v>
+        <v>284.0669110913908</v>
       </c>
       <c r="F92">
-        <v>225.513</v>
+        <v>252.4097255083492</v>
       </c>
       <c r="G92">
-        <v>227.6503498978703</v>
+        <v>205.7653683019905</v>
       </c>
       <c r="H92">
-        <v>395.9327758165056</v>
+        <v>149.2089439835059</v>
       </c>
       <c r="I92">
-        <v>611.7944120514554</v>
+        <v>41.15948625803775</v>
       </c>
       <c r="J92">
-        <v>904.0082506718204</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>1008.969103578297</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>1744.030760025431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4320,31 +4320,31 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D93">
-        <v>66.91234564031244</v>
+        <v>9.862565402026725</v>
       </c>
       <c r="E93">
-        <v>102.5820087418906</v>
+        <v>4.541970908828096</v>
       </c>
       <c r="F93">
-        <v>102.5820087418906</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>102.5820087418906</v>
+        <v>17.52352150537634</v>
       </c>
       <c r="H93">
-        <v>6.639764936336924</v>
+        <v>18.0054183467742</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>18.0054183467742</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>7.009408602150538</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4361,34 +4361,34 @@
         <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D94">
-        <v>229.1565474368417</v>
+        <v>0.519082389580354</v>
       </c>
       <c r="E94">
-        <v>284.0669110913908</v>
+        <v>0.6488529869754424</v>
       </c>
       <c r="F94">
-        <v>252.4097255083454</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>205.7653683019904</v>
+        <v>8.761760752688174</v>
       </c>
       <c r="H94">
-        <v>284.0669110913908</v>
+        <v>8.279863911290324</v>
       </c>
       <c r="I94">
-        <v>284.0669110913908</v>
+        <v>8.279863911290324</v>
       </c>
       <c r="J94">
-        <v>284.0669110913908</v>
+        <v>19.27587365591398</v>
       </c>
       <c r="K94">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4399,34 +4399,34 @@
         <v>70</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D95">
-        <v>10.38164779160708</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>4.541970908828096</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.01700220036809764</v>
       </c>
       <c r="G95">
-        <v>17.52352150537634</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>14.01881720430108</v>
+        <v>0.002077142229953807</v>
       </c>
       <c r="I95">
-        <v>10.5141129032258</v>
+        <v>0.01289559134429655</v>
       </c>
       <c r="J95">
-        <v>7.009408602150538</v>
+        <v>0.08022961863196582</v>
       </c>
       <c r="K95">
-        <v>3.504704301075269</v>
+        <v>0.4993796111180612</v>
       </c>
       <c r="L95">
-        <v>18.00541834677419</v>
+        <v>2.942618159101228</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4437,34 +4437,34 @@
         <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0.648852986975442</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>8.761760752688172</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>12.26646505376344</v>
+        <v>0.01680596895144444</v>
       </c>
       <c r="I96">
-        <v>15.77116935483871</v>
+        <v>0.1043370572402176</v>
       </c>
       <c r="J96">
-        <v>19.27587365591398</v>
+        <v>0.6491305507495414</v>
       </c>
       <c r="K96">
-        <v>22.78057795698925</v>
+        <v>4.040435035409767</v>
       </c>
       <c r="L96">
-        <v>8.279863911290322</v>
+        <v>23.80845601454629</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4475,7 +4475,7 @@
         <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4493,16 +4493,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0.01102534930380581</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.07835937659147506</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="K97">
-        <v>0.4993796111180613</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="L97">
-        <v>2.942618159101227</v>
+        <v>0.6054866100587851</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4510,7 +4510,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
         <v>139</v>
@@ -4528,19 +4528,19 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>0.008716030705214359</v>
       </c>
       <c r="I98">
-        <v>0.08920509891261064</v>
+        <v>0.0541113398855417</v>
       </c>
       <c r="J98">
-        <v>0.6339985924219346</v>
+        <v>0.3507113959698037</v>
       </c>
       <c r="K98">
-        <v>4.040435035409769</v>
+        <v>2.18304543368649</v>
       </c>
       <c r="L98">
-        <v>23.80845601454629</v>
+        <v>2.151632876981684</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4548,10 +4548,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0.01700220036809764</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4569,16 +4569,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0.001870242040490741</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0.001870242040490741</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>10.74022329675516</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4586,10 +4586,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4607,16 +4607,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0.0151319583276069</v>
+        <v>7.603138222849084</v>
       </c>
       <c r="J100">
-        <v>0.0151319583276069</v>
+        <v>45.35164925380287</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>45.3516492538029</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>557.0340359926403</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4624,37 +4624,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>3516.000795070563</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>3878.663459399527</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>2109.600477042338</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>3990.836262666379</v>
       </c>
       <c r="H101">
-        <v>-1.522262358073512E-07</v>
+        <v>7402.488372093024</v>
       </c>
       <c r="I101">
-        <v>0.04539475724516035</v>
+        <v>34536.37304937399</v>
       </c>
       <c r="J101">
-        <v>0.3419945886001199</v>
+        <v>16022.50220507258</v>
       </c>
       <c r="K101">
-        <v>0.3419945886001198</v>
+        <v>30615.05479475574</v>
       </c>
       <c r="L101">
-        <v>0.3192982774417439</v>
+        <v>21654.54340929459</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4662,10 +4662,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4680,19 +4680,19 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0.008714252057280146</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0.008715901261141001</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0.008716354315417039</v>
+        <v>16418.73052014734</v>
       </c>
       <c r="K102">
-        <v>1.841050953855351</v>
+        <v>16744.95185295698</v>
       </c>
       <c r="L102">
-        <v>12.57255789629512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4703,7 +4703,7 @@
         <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4721,16 +4721,16 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>5.824983438414376E-07</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>16671</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>21160.3</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4741,34 +4741,34 @@
         <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1811.470425971182</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1772.368108473762</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1741.698567082206</v>
       </c>
       <c r="I104">
-        <v>7.6031382228491</v>
+        <v>595.8290552739505</v>
       </c>
       <c r="J104">
-        <v>7.603138222849098</v>
+        <v>26.2809306438238</v>
       </c>
       <c r="K104">
-        <v>7.603138222848929</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>520.9513674752511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4779,34 +4779,34 @@
         <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D105">
-        <v>1925.01904450974</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>3878.663459399527</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>2109.600477042338</v>
+        <v>0.1558802970586208</v>
       </c>
       <c r="G105">
-        <v>3990.836262664585</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>7402.488372093024</v>
+        <v>0.019048834284256</v>
       </c>
       <c r="I105">
-        <v>2280.336705837994</v>
+        <v>0.1183032866074846</v>
       </c>
       <c r="J105">
-        <v>1668.36030095528</v>
+        <v>7.00615606301586</v>
       </c>
       <c r="K105">
-        <v>1045.343185550082</v>
+        <v>4.578404029724688</v>
       </c>
       <c r="L105">
-        <v>7402.488372093024</v>
+        <v>26.93572005808831</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4820,7 +4820,7 @@
         <v>137</v>
       </c>
       <c r="D106">
-        <v>1776.940656470529</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4832,19 +4832,19 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>0.1541223864817076</v>
       </c>
       <c r="I106">
-        <v>5720.844718154966</v>
+        <v>0.9571811370969209</v>
       </c>
       <c r="J106">
-        <v>6404.350832699299</v>
+        <v>56.68617178258288</v>
       </c>
       <c r="K106">
-        <v>7100.188130424584</v>
+        <v>37.04345078595428</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>217.934462288169</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4855,34 +4855,34 @@
         <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D107">
-        <v>1811.470425971182</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1772.368108473762</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>1741.842288836272</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1764.371270141469</v>
+        <v>0.8925869894099848</v>
       </c>
       <c r="J107">
-        <v>1798.57440055554</v>
+        <v>5.547150781643973</v>
       </c>
       <c r="K107">
-        <v>1804.005479257806</v>
+        <v>34.54362077660112</v>
       </c>
       <c r="L107">
-        <v>1462.053537516454</v>
+        <v>34.54362077660112</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4893,7 +4893,7 @@
         <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4911,16 +4911,16 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0.1011564539310363</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>0.7180713326808009</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>4.578404029724687</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>26.93572005808831</v>
+        <v>169.3396847178715</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4928,10 +4928,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4949,16 +4949,16 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0.8184476727147486</v>
+        <v>0.8936938317115073</v>
       </c>
       <c r="J109">
-        <v>5.809849873508298</v>
+        <v>5.554024574434116</v>
       </c>
       <c r="K109">
-        <v>37.04345078595429</v>
+        <v>34.58642575897611</v>
       </c>
       <c r="L109">
-        <v>217.9344622881691</v>
+        <v>34.13957923639661</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4966,37 +4966,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
         <v>101</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>3415.801411290323</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>3283.178823951414</v>
       </c>
       <c r="F110">
-        <v>0.1558802970586208</v>
+        <v>3281.917735241736</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>3062.584497361961</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3153.69568188102</v>
       </c>
       <c r="I110">
-        <v>0.01714683267644829</v>
+        <v>1522.426760666525</v>
       </c>
       <c r="J110">
-        <v>0.01714683267644829</v>
+        <v>993.1281136629952</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1021.013698234676</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>1055.546664222305</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5004,37 +5004,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>198.398</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>148.8680986132027</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>114.7239463730707</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>198.398</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>198.398</v>
       </c>
       <c r="I111">
-        <v>0.1387334643821726</v>
+        <v>198.398</v>
       </c>
       <c r="J111">
-        <v>0.1387334643821726</v>
+        <v>184.2237000790301</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>158.3618411799352</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>75.13649700449577</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5042,10 +5042,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5054,25 +5054,25 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>546.7610551540853</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>710.471</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>710.471</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>898.659191910318</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>877.4294509638908</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>856.6458417389566</v>
       </c>
       <c r="L112">
-        <v>203.4792639542681</v>
+        <v>125.484271233745</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5080,37 +5080,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>630.6206835308479</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>600.0411754519055</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>137.2468400268301</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>158.4765809732571</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>21.22974094642703</v>
       </c>
       <c r="K113">
-        <v>4.530542671989911E-07</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>708.6019137326441</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5118,37 +5118,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D114">
-        <v>3415.801411290324</v>
+        <v>335.6549564323907</v>
       </c>
       <c r="E114">
-        <v>3272.723232291811</v>
+        <v>316.992282499838</v>
       </c>
       <c r="F114">
-        <v>3271.462143582134</v>
+        <v>264.2497825955256</v>
       </c>
       <c r="G114">
-        <v>3072.114499395079</v>
+        <v>337.681</v>
       </c>
       <c r="H114">
-        <v>3181.970406597364</v>
+        <v>337.681</v>
       </c>
       <c r="I114">
-        <v>3199.799622608264</v>
+        <v>342.6031052121011</v>
       </c>
       <c r="J114">
-        <v>3456.993125545996</v>
+        <v>379.3010274517646</v>
       </c>
       <c r="K114">
-        <v>3433.587163523499</v>
+        <v>269.3893244413276</v>
       </c>
       <c r="L114">
-        <v>3505.066038642083</v>
+        <v>113.9370284446839</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5156,37 +5156,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C115" t="s">
         <v>110</v>
       </c>
       <c r="D115">
-        <v>198.398</v>
+        <v>122.6882252370705</v>
       </c>
       <c r="E115">
-        <v>156.9903249563666</v>
+        <v>63.39351851851853</v>
       </c>
       <c r="F115">
-        <v>134.7569076365611</v>
+        <v>50.71481481481482</v>
       </c>
       <c r="G115">
-        <v>198.398</v>
+        <v>104.3764037476459</v>
       </c>
       <c r="H115">
-        <v>198.398</v>
+        <v>25.35740740740741</v>
       </c>
       <c r="I115">
-        <v>198.398</v>
+        <v>19.51638774325174</v>
       </c>
       <c r="J115">
-        <v>198.398</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>198.398</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>203.7129379275439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5194,37 +5194,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C116" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="D116">
-        <v>628.364902067747</v>
+        <v>175.228921231177</v>
       </c>
       <c r="E116">
-        <v>597.838036026671</v>
+        <v>153.2189611228841</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>128.8994619022598</v>
       </c>
       <c r="G116">
-        <v>710.471</v>
+        <v>108.466491586301</v>
       </c>
       <c r="H116">
-        <v>798.0015121451968</v>
+        <v>81.80167148814905</v>
       </c>
       <c r="I116">
-        <v>1075.421330506639</v>
+        <v>59.48326157682324</v>
       </c>
       <c r="J116">
-        <v>994.8727921208815</v>
+        <v>36.31483349276647</v>
       </c>
       <c r="K116">
-        <v>987.8908183614421</v>
+        <v>35.13775133489406</v>
       </c>
       <c r="L116">
-        <v>511.0908057277111</v>
+        <v>34.02555865048727</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5232,37 +5232,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>26.67761066733271</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>296.0204633242451</v>
       </c>
       <c r="F117">
-        <v>546.2524005633876</v>
+        <v>330.3231452641059</v>
       </c>
       <c r="G117">
-        <v>137.5160624796776</v>
+        <v>360.939646879764</v>
       </c>
       <c r="H117">
-        <v>137.5160624796776</v>
+        <v>322.967631913581</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>139.9037558817646</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>146.078199860237</v>
+        <v>0</v>
       </c>
       <c r="L117">
-        <v>590.7086920437415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5270,37 +5270,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D118">
-        <v>323.5078317608079</v>
+        <v>306.7925226743264</v>
       </c>
       <c r="E118">
-        <v>316.9866344522198</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>264.2441345479088</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>337.681</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>337.681</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>342.6008712531019</v>
+        <v>157.4481671949362</v>
       </c>
       <c r="J118">
-        <v>382.751997664136</v>
+        <v>128.8180652912221</v>
       </c>
       <c r="K118">
-        <v>290.8432737706868</v>
+        <v>129.8581775249346</v>
       </c>
       <c r="L118">
-        <v>213.1624006061254</v>
+        <v>127.4755889142268</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5308,28 +5308,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D119">
-        <v>120.0890010365237</v>
+        <v>407.0074734482478</v>
       </c>
       <c r="E119">
-        <v>63.3935185185185</v>
+        <v>360.3696223158639</v>
       </c>
       <c r="F119">
-        <v>50.71481481481482</v>
+        <v>357.542042769995</v>
       </c>
       <c r="G119">
-        <v>104.3764037476459</v>
+        <v>440.8343979931211</v>
       </c>
       <c r="H119">
-        <v>25.3574074074074</v>
+        <v>128.3778234368193</v>
       </c>
       <c r="I119">
-        <v>12.6787037037037</v>
+        <v>45.02213167484755</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -5349,34 +5349,34 @@
         <v>88</v>
       </c>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D120">
-        <v>175.2289212311771</v>
+        <v>52.887976775761</v>
       </c>
       <c r="E120">
-        <v>153.2189611228841</v>
+        <v>46.82769103539476</v>
       </c>
       <c r="F120">
-        <v>128.89946190226</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>108.0261230627175</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>81.89522442070363</v>
+        <v>16.68186406241155</v>
       </c>
       <c r="I120">
-        <v>59.57681450937786</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>36.46792442769743</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>35.50764701298647</v>
+        <v>0</v>
       </c>
       <c r="L120">
-        <v>35.51856253416316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5384,37 +5384,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D121">
-        <v>26.95750477418153</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>295.6746918451777</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>332.1872065995384</v>
+        <v>46.4602654446886</v>
       </c>
       <c r="G121">
-        <v>360.2912614897942</v>
+        <v>57.28356584091402</v>
       </c>
       <c r="H121">
-        <v>350.1808187896511</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>254.094541232323</v>
+        <v>5.850333494471714</v>
       </c>
       <c r="J121">
-        <v>152.0825797834113</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>148.989651933025</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>144.7230251586316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5425,34 +5425,34 @@
         <v>89</v>
       </c>
       <c r="C122" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D122">
-        <v>310.0113049030877</v>
+        <v>116.919</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>128.4928597185107</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>137.5866066401977</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>117.1719078207525</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>206.9412050995312</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>211.5327301097601</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>228.4038746915101</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>210.7495751265238</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>44.70833777414009</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5460,37 +5460,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C123" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D123">
-        <v>396.2827536779189</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>355.2086811045486</v>
+        <v>9.093746921686989</v>
       </c>
       <c r="F123">
-        <v>364.5809771506937</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>402.8970847631223</v>
+        <v>60.53810692168697</v>
       </c>
       <c r="H123">
-        <v>150.9020279804633</v>
+        <v>17.65429956498638</v>
       </c>
       <c r="I123">
-        <v>73.8694481631464</v>
+        <v>37.5007601474644</v>
       </c>
       <c r="J123">
-        <v>22.99698299382716</v>
+        <v>20.62961556571438</v>
       </c>
       <c r="K123">
-        <v>8.755341940555564</v>
+        <v>38.28391513070076</v>
       </c>
       <c r="L123">
-        <v>17.85576954964748</v>
+        <v>35.12797967968149</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5501,34 +5501,34 @@
         <v>90</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D124">
-        <v>51.49436912198944</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>46.15706025652327</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>119.9977643012081</v>
       </c>
       <c r="G124">
-        <v>52.35385847204413</v>
+        <v>119.9977643012081</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>119.9977643012081</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>84.60734845723745</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>84.46979825643449</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>3.57198307660894</v>
       </c>
       <c r="L124">
-        <v>2.320241240914644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5539,16 +5539,16 @@
         <v>90</v>
       </c>
       <c r="C125" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>84.17200000000001</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>84.17200000000001</v>
       </c>
       <c r="F125">
-        <v>47.37492923427094</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>1.137699800185186</v>
+        <v>0</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -5577,34 +5577,34 @@
         <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D126">
-        <v>116.919</v>
+        <v>394.4639999999999</v>
       </c>
       <c r="E126">
-        <v>147.958553566523</v>
+        <v>396.8398422869277</v>
       </c>
       <c r="F126">
-        <v>82.85678999725289</v>
+        <v>317.8492847592601</v>
       </c>
       <c r="G126">
-        <v>126.5072234388316</v>
+        <v>76.26890206295579</v>
       </c>
       <c r="H126">
-        <v>169.6554649182431</v>
+        <v>39.66750885389543</v>
       </c>
       <c r="I126">
-        <v>145.9646637067825</v>
+        <v>3.066115644835043</v>
       </c>
       <c r="J126">
-        <v>141.2320968713207</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>166.2265806927405</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>142.7619480509642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5612,10 +5612,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -5624,25 +5624,25 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>65.1017635692701</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>51.44435999999998</v>
+        <v>91.46446694284033</v>
       </c>
       <c r="H127">
-        <v>65.1017635692701</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>103.2931805345058</v>
+        <v>447.7272365011827</v>
       </c>
       <c r="J127">
-        <v>110.9680761131805</v>
+        <v>598.9359717086834</v>
       </c>
       <c r="K127">
-        <v>85.9735922917606</v>
+        <v>707.0999999999998</v>
       </c>
       <c r="L127">
-        <v>112.1701020400432</v>
+        <v>447.7272365011827</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5653,34 +5653,34 @@
         <v>92</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>736.6623662003866</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>867.7862143688808</v>
       </c>
       <c r="F128">
-        <v>120.7906359009082</v>
+        <v>654.878038338417</v>
       </c>
       <c r="G128">
-        <v>120.7906359009082</v>
+        <v>742.0108046459447</v>
       </c>
       <c r="H128">
-        <v>120.7906359009082</v>
+        <v>889.7444669428402</v>
       </c>
       <c r="I128">
-        <v>120.7906359009082</v>
+        <v>889.7444669428403</v>
       </c>
       <c r="J128">
-        <v>120.7906359009082</v>
+        <v>1020.300452337734</v>
       </c>
       <c r="K128">
-        <v>120.7906359009082</v>
+        <v>912.1364240464178</v>
       </c>
       <c r="L128">
-        <v>120.7906359009082</v>
+        <v>1206.645209052577</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5691,19 +5691,19 @@
         <v>92</v>
       </c>
       <c r="C129" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D129">
-        <v>84.17200000000001</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>84.17200000000001</v>
+        <v>21.95825257395946</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>39.0428325135209</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>56.26919535405523</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -5729,34 +5729,34 @@
         <v>93</v>
       </c>
       <c r="C130" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D130">
-        <v>394.4639999999999</v>
+        <v>10.71184623334378</v>
       </c>
       <c r="E130">
-        <v>396.8044303786216</v>
+        <v>12.50262857793237</v>
       </c>
       <c r="F130">
-        <v>317.8492847592605</v>
+        <v>16.28552938826362</v>
       </c>
       <c r="G130">
-        <v>76.26890206295576</v>
+        <v>29.97170309890273</v>
       </c>
       <c r="H130">
-        <v>39.66750885389542</v>
+        <v>33.63313366549079</v>
       </c>
       <c r="I130">
-        <v>3.066115644835044</v>
+        <v>37.35132602263303</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>36.68131028638138</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>37.00828935817251</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>37.03051942992415</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5767,34 +5767,34 @@
         <v>94</v>
       </c>
       <c r="C131" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1.791145833333334</v>
       </c>
       <c r="E131">
-        <v>42.23157894736846</v>
+        <v>32.68817800854027</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>31.36439764674041</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>31.79404974607724</v>
       </c>
       <c r="H131">
-        <v>80.93800102757186</v>
+        <v>0.3142361111111111</v>
       </c>
       <c r="I131">
-        <v>459.1625739875306</v>
+        <v>0.1571180555555556</v>
       </c>
       <c r="J131">
-        <v>565.7170771263904</v>
+        <v>0</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131">
-        <v>80.93800102757186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5802,37 +5802,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C132" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>4145.937</v>
       </c>
       <c r="E132">
-        <v>418.6769884104645</v>
+        <v>4145.129</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>4067.867</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>4218.843974574721</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>4316.071862393314</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>5515.701689157377</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>5934.547763620586</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>6063.833652879963</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>6110.476307404022</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5840,37 +5840,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C133" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D133">
-        <v>754.8936815201007</v>
+        <v>1037.186561495476</v>
       </c>
       <c r="E133">
-        <v>400.4740319533497</v>
+        <v>1012.043078947369</v>
       </c>
       <c r="F133">
-        <v>619.6977831144051</v>
+        <v>967.3578545041148</v>
       </c>
       <c r="G133">
-        <v>807.8180010275718</v>
+        <v>999.3623254260638</v>
       </c>
       <c r="H133">
-        <v>798.28</v>
+        <v>856.74912623715</v>
       </c>
       <c r="I133">
-        <v>420.0554270400412</v>
+        <v>861.3516403843947</v>
       </c>
       <c r="J133">
-        <v>313.5009239011814</v>
+        <v>777.9737602439852</v>
       </c>
       <c r="K133">
-        <v>879.2180010275719</v>
+        <v>773.3484626622001</v>
       </c>
       <c r="L133">
-        <v>798.28</v>
+        <v>749.2338408256066</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5878,22 +5878,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>17.83540171638924</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>54.46065585520024</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>71.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>79.39717074294094</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5916,37 +5916,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C135" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D135">
-        <v>7.42987738000109</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>12.4165930515125</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>16.19617417002503</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>29.88234788066413</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>33.54377844725219</v>
+        <v>168.6766569382546</v>
       </c>
       <c r="I135">
-        <v>37.26197080439442</v>
+        <v>431.0347010679462</v>
       </c>
       <c r="J135">
-        <v>36.92269611537901</v>
+        <v>680.192469762762</v>
       </c>
       <c r="K135">
-        <v>37.00812208687939</v>
+        <v>814.779413484</v>
       </c>
       <c r="L135">
-        <v>37.03051942992434</v>
+        <v>824.0382119740985</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5954,28 +5954,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C136" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D136">
-        <v>2.007</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>32.70467775635736</v>
+        <v>0.08999999999999239</v>
       </c>
       <c r="F136">
-        <v>0.6284722222222222</v>
+        <v>0.09</v>
       </c>
       <c r="G136">
-        <v>31.80903624614226</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="H136">
-        <v>0.3142361111111111</v>
+        <v>0.09</v>
       </c>
       <c r="I136">
-        <v>31.29472636746847</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -5984,158 +5984,6 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>97</v>
-      </c>
-      <c r="C137" t="s">
-        <v>101</v>
-      </c>
-      <c r="D137">
-        <v>4145.937</v>
-      </c>
-      <c r="E137">
-        <v>4145.129000000001</v>
-      </c>
-      <c r="F137">
-        <v>4067.867</v>
-      </c>
-      <c r="G137">
-        <v>4239.245244829433</v>
-      </c>
-      <c r="H137">
-        <v>4296.168739572239</v>
-      </c>
-      <c r="I137">
-        <v>4235.714971873863</v>
-      </c>
-      <c r="J137">
-        <v>4227.720957543946</v>
-      </c>
-      <c r="K137">
-        <v>4227.661724946642</v>
-      </c>
-      <c r="L137">
-        <v>4220.52720512746</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>98</v>
-      </c>
-      <c r="C138" t="s">
-        <v>134</v>
-      </c>
-      <c r="D138">
-        <v>1026.792772981932</v>
-      </c>
-      <c r="E138">
-        <v>1016.454957486198</v>
-      </c>
-      <c r="F138">
-        <v>962.761360476604</v>
-      </c>
-      <c r="G138">
-        <v>997.6896291899623</v>
-      </c>
-      <c r="H138">
-        <v>783.5861999213148</v>
-      </c>
-      <c r="I138">
-        <v>823.3087924724646</v>
-      </c>
-      <c r="J138">
-        <v>765.9927589466876</v>
-      </c>
-      <c r="K138">
-        <v>726.6005064935047</v>
-      </c>
-      <c r="L138">
-        <v>737.1294430833522</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>99</v>
-      </c>
-      <c r="C139" t="s">
-        <v>139</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>5.356539904788175E-07</v>
-      </c>
-      <c r="H139">
-        <v>43.62831164227693</v>
-      </c>
-      <c r="I139">
-        <v>43.62831131866673</v>
-      </c>
-      <c r="J139">
-        <v>153.3233593140321</v>
-      </c>
-      <c r="K139">
-        <v>146.8047016900657</v>
-      </c>
-      <c r="L139">
-        <v>109.6950479953649</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>100</v>
-      </c>
-      <c r="C140" t="s">
-        <v>140</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0.09000000000010454</v>
-      </c>
-      <c r="F140">
-        <v>0.09</v>
-      </c>
-      <c r="G140">
-        <v>0.09</v>
-      </c>
-      <c r="H140">
-        <v>0.09000000000000001</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>4.530542736313458E-07</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
         <v>0</v>
       </c>
     </row>
